--- a/RaibaKonten2022.xlsx
+++ b/RaibaKonten2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="9232702" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="42">
   <si>
     <t xml:space="preserve">DE19660623660009232702</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">Abrechnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werner Haas</t>
   </si>
   <si>
     <t xml:space="preserve">DE03660623663409331407</t>
@@ -317,10 +320,10 @@
   <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>44656</v>
+        <v>44684</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>13</v>
@@ -1815,13 +1818,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E76"/>
+  <dimension ref="A2:E77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
   </cols>
@@ -2354,31 +2357,41 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>44670</v>
+        <v>44660</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="2" t="n">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="n">
         <f aca="false">SUM(E34+D35)</f>
-        <v>10620.48</v>
+        <v>10673.48</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="2"/>
+      <c r="A36" s="1" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <f aca="false">SUM(E35+D36)</f>
+        <v>10728.48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
@@ -2388,12 +2401,12 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,12 +2429,12 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,12 +2457,12 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,12 +2473,12 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,13 +2489,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
@@ -2498,12 +2511,12 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,13 +2527,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
@@ -2530,19 +2543,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="E69" s="2"/>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
@@ -2558,12 +2571,12 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,7 +2593,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
       <c r="E76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+      <c r="E77" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2607,7 +2626,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.86"/>
@@ -2615,7 +2634,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3139,11 +3158,11 @@
   </sheetPr>
   <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
@@ -3151,7 +3170,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3646,11 +3665,11 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.64"/>
@@ -3661,7 +3680,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3698,7 +3717,7 @@
         <v>44225</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
@@ -3719,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>-110.26</v>
@@ -3740,7 +3759,7 @@
         <v>44620</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -3761,7 +3780,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>-110.17</v>
@@ -3782,7 +3801,7 @@
         <v>44651</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
@@ -3803,7 +3822,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>-110.07</v>
@@ -3824,7 +3843,7 @@
         <v>44681</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
@@ -3845,7 +3864,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>-109.98</v>
@@ -3864,7 +3883,7 @@
         <v>44344</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>165.21</v>
@@ -3879,7 +3898,7 @@
         <v>44344</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>-110.17</v>
@@ -3897,7 +3916,7 @@
         <v>44377</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>19</v>
@@ -3918,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>-110.91</v>
@@ -3936,7 +3955,7 @@
         <v>44408</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>19</v>
@@ -3957,7 +3976,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>-110.82</v>
@@ -3975,7 +3994,7 @@
         <v>44439</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>19</v>
@@ -3996,7 +4015,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>-110.73</v>
@@ -4014,7 +4033,7 @@
         <v>44469</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>19</v>
@@ -4035,7 +4054,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>-110.63</v>
@@ -4053,7 +4072,7 @@
         <v>44500</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>19</v>
@@ -4074,7 +4093,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>-110.54</v>
@@ -4092,7 +4111,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>19</v>
@@ -4113,7 +4132,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>-110.45</v>
@@ -4131,7 +4150,7 @@
         <v>44561</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>19</v>
@@ -4152,7 +4171,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>-110.35</v>

--- a/RaibaKonten2022.xlsx
+++ b/RaibaKonten2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="47">
   <si>
     <t xml:space="preserve">DE19660623660009232702</t>
   </si>
@@ -110,6 +110,18 @@
     <t xml:space="preserve">Umbuchung</t>
   </si>
   <si>
+    <t xml:space="preserve">Grundsteuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raiffeisenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girocard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlag Abwasser</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE78660623663409331409</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">Werner Haas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebühr</t>
   </si>
   <si>
     <t xml:space="preserve">DE03660623663409331407</t>
@@ -317,13 +332,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E88" activeCellId="1" sqref="A23 E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
@@ -1396,230 +1411,647 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>44671</v>
+        <v>44697</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-177</v>
+        <v>-105.75</v>
       </c>
       <c r="E57" s="6" t="n">
         <f aca="false">SUM(E56+D57)</f>
-        <v>1051.63</v>
+        <v>1122.88</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>44671</v>
+        <v>44698</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-42</v>
+        <v>-177</v>
       </c>
       <c r="E58" s="6" t="n">
         <f aca="false">SUM(E57+D58)</f>
-        <v>1009.63</v>
+        <v>945.88</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>44651</v>
+        <v>44698</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-456.04</v>
+        <v>-42</v>
       </c>
       <c r="E59" s="6" t="n">
         <f aca="false">SUM(E58+D59)</f>
-        <v>553.59</v>
+        <v>903.88</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>44651</v>
+        <v>44711</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-456.04</v>
+        <v>-140</v>
       </c>
       <c r="E60" s="6" t="n">
         <f aca="false">SUM(E59+D60)</f>
-        <v>97.5499999999999</v>
+        <v>763.88</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>8</v>
+        <v>44712</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-269.92</v>
+        <v>-456.04</v>
       </c>
       <c r="E61" s="6" t="n">
         <f aca="false">SUM(E60+D61)</f>
-        <v>-172.37</v>
+        <v>307.84</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>17</v>
+        <v>44712</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-165.21</v>
+        <v>-269.92</v>
       </c>
       <c r="E62" s="6" t="n">
         <f aca="false">SUM(E61+D62)</f>
-        <v>-337.58</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="6"/>
+      <c r="A63" s="1" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>-165.21</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <f aca="false">SUM(E62+D63)</f>
+        <v>-127.29</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="7"/>
-      <c r="E65" s="6"/>
+      <c r="A65" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>660</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <f aca="false">SUM(E63+D65)</f>
+        <v>532.71</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="E66" s="6"/>
+      <c r="A66" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>-275.04</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <f aca="false">SUM(E65+D66)</f>
+        <v>257.67</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="7"/>
-      <c r="E67" s="6"/>
+      <c r="A67" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <f aca="false">SUM(E66+D67)</f>
+        <v>1007.67</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="7"/>
-      <c r="E68" s="6"/>
+      <c r="A68" s="1" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>-177</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <f aca="false">SUM(E67+D68)</f>
+        <v>830.67</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="6"/>
+      <c r="A69" s="1" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <f aca="false">SUM(E68+D69)</f>
+        <v>788.67</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="6"/>
+      <c r="A70" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>-12.63</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <f aca="false">SUM(E69+D70)</f>
+        <v>776.04</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="6"/>
+      <c r="A71" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <f aca="false">SUM(E70+D71)</f>
+        <v>769.04</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="6"/>
+      <c r="A72" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>-456.04</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <f aca="false">SUM(E71+D72)</f>
+        <v>313</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="7"/>
-      <c r="E73" s="6"/>
+      <c r="A73" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>-269.92</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <f aca="false">SUM(E72+D73)</f>
+        <v>43.0799999999999</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="6"/>
+      <c r="A74" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>-165.21</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <f aca="false">SUM(E73+D74)</f>
+        <v>-122.13</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="7"/>
-      <c r="E76" s="6"/>
+      <c r="A76" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>660</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <f aca="false">SUM(E74+D76)</f>
+        <v>537.87</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="7"/>
-      <c r="E77" s="6"/>
+      <c r="A77" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>-275.04</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <f aca="false">SUM(E76+D77)</f>
+        <v>262.83</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="E78" s="6"/>
+      <c r="A78" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <f aca="false">SUM(E77+D78)</f>
+        <v>1012.83</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="7"/>
-      <c r="E79" s="6"/>
+      <c r="A79" s="1" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>-177</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <f aca="false">SUM(E78+D79)</f>
+        <v>835.83</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="6"/>
+      <c r="A80" s="1" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E80" s="6" t="n">
+        <f aca="false">SUM(E79+D80)</f>
+        <v>797.83</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="6"/>
+      <c r="A81" s="1" t="n">
+        <v>44772</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>-456.04</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <f aca="false">SUM(E80+D81)</f>
+        <v>341.79</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="6"/>
+      <c r="A82" s="1" t="n">
+        <v>44772</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>-269.92</v>
+      </c>
+      <c r="E82" s="6" t="n">
+        <f aca="false">SUM(E81+D82)</f>
+        <v>71.87</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="6"/>
+      <c r="A83" s="1" t="n">
+        <v>44772</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>-165.21</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <f aca="false">SUM(E82+D83)</f>
+        <v>-93.34</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="7"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="6"/>
+      <c r="A85" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>660</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <f aca="false">SUM(E83+D85)</f>
+        <v>566.66</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="6"/>
+      <c r="A86" s="1" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>-140</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <f aca="false">SUM(E85+D86)</f>
+        <v>426.66</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="7"/>
-      <c r="E87" s="6"/>
+      <c r="A87" s="1" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>-275.04</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <f aca="false">SUM(E86+D87)</f>
+        <v>151.62</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="E88" s="6"/>
+      <c r="A88" s="1" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <f aca="false">SUM(E87+D88)</f>
+        <v>901.62</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="7"/>
-      <c r="E89" s="6"/>
+      <c r="A89" s="1" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>-177</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <f aca="false">SUM(E88+D89)</f>
+        <v>724.62</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="6"/>
+      <c r="A90" s="1" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <f aca="false">SUM(E89+D90)</f>
+        <v>686.62</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="6"/>
+      <c r="A91" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>-140</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <f aca="false">SUM(E90+D91)</f>
+        <v>546.62</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="6"/>
+      <c r="A92" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>-456.04</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <f aca="false">SUM(E91+D92)</f>
+        <v>90.5799999999999</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="6"/>
+      <c r="A93" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>-269.92</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <f aca="false">SUM(E92+D93)</f>
+        <v>-179.34</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="7"/>
-      <c r="E94" s="6"/>
+      <c r="A94" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>-165.21</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <f aca="false">SUM(E93+D94)</f>
+        <v>-344.55</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="7"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="7"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,19 +2061,19 @@
       <c r="E98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="7"/>
       <c r="E99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="E101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="7"/>
       <c r="E102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,10 +2083,10 @@
       <c r="E104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="7"/>
       <c r="E105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="7"/>
       <c r="E106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,15 +2099,14 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="7"/>
       <c r="E110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="E111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="E112" s="6"/>
     </row>
@@ -1684,13 +2115,13 @@
       <c r="E113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="7"/>
       <c r="E114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="7"/>
       <c r="E116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,25 +2129,26 @@
       <c r="E117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="7"/>
       <c r="E118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="7"/>
       <c r="E120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="E121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="E122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="7"/>
       <c r="E123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,10 +2158,10 @@
       <c r="E125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="7"/>
       <c r="E126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="7"/>
       <c r="E127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,22 +2171,22 @@
       <c r="E129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="7"/>
       <c r="E130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="E131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
       <c r="E132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="7"/>
       <c r="E133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="7"/>
       <c r="E134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,17 +2196,16 @@
       <c r="E136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="7"/>
       <c r="E137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="7"/>
       <c r="E138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="7"/>
       <c r="E140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,19 +2213,23 @@
       <c r="E141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="E142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
       <c r="E143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="7"/>
       <c r="E144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="7"/>
       <c r="E145" s="6"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1818,20 +2253,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E77"/>
+  <dimension ref="A2:E78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A54" activeCellId="1" sqref="A23 A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1872,7 +2307,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>10</v>
@@ -1926,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>55</v>
@@ -1944,7 +2379,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>50</v>
@@ -1962,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>50</v>
@@ -1986,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>10</v>
@@ -2022,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>50</v>
@@ -2040,7 +2475,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>50</v>
@@ -2062,7 +2497,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>10</v>
@@ -2098,7 +2533,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>50</v>
@@ -2116,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>50</v>
@@ -2134,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>55</v>
@@ -2176,7 +2611,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>-8.15</v>
@@ -2194,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>10</v>
@@ -2230,7 +2665,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>50</v>
@@ -2248,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>50</v>
@@ -2266,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>55</v>
@@ -2285,13 +2720,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>10</v>
@@ -2303,7 +2738,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>8</v>
@@ -2321,13 +2756,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>44659</v>
+        <v>44690</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>50</v>
@@ -2339,13 +2774,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>44659</v>
+        <v>44690</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>50</v>
@@ -2357,10 +2792,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>44660</v>
+        <v>44690</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2" t="n">
@@ -2373,59 +2808,149 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>44670</v>
+        <v>44705</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>55</v>
+        <v>-100</v>
       </c>
       <c r="E36" s="2" t="n">
         <f aca="false">SUM(E35+D36)</f>
-        <v>10728.48</v>
+        <v>10573.48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="E37" s="6"/>
     </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <f aca="false">SUM(E36+D38)</f>
+        <v>10583.48</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <f aca="false">SUM(E38+D39)</f>
+        <v>11583.48</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <f aca="false">SUM(E39+D40)</f>
+        <v>11633.48</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <f aca="false">SUM(E40+D41)</f>
+        <v>11683.48</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="1" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C42" s="7"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <f aca="false">SUM(E41+D42)</f>
+        <v>11738.48</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>-8.34</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <f aca="false">SUM(E42+D43)</f>
+        <v>11730.14</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <f aca="false">SUM(E43+D44)</f>
+        <v>11723.14</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
@@ -2434,74 +2959,216 @@
       <c r="E45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <f aca="false">SUM(E44+D46)</f>
+        <v>11733.14</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <f aca="false">SUM(E46+D47)</f>
+        <v>12733.14</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C48" s="7"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <f aca="false">SUM(E47+D48)</f>
+        <v>12910.14</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="1" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <f aca="false">SUM(E48+D49)</f>
+        <v>12960.14</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="1" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C50" s="7"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <f aca="false">SUM(E49+D50)</f>
+        <v>13010.14</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="1" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <f aca="false">SUM(E50+D51)</f>
+        <v>13065.14</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <f aca="false">SUM(E51+D53)</f>
+        <v>13075.14</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <f aca="false">SUM(E53+D54)</f>
+        <v>14075.14</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C55" s="7"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <f aca="false">SUM(E54+D55)</f>
+        <v>14252.14</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="1" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <f aca="false">SUM(E55+D56)</f>
+        <v>14302.14</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="E57" s="6"/>
+      <c r="A57" s="1" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <f aca="false">SUM(E56+D57)</f>
+        <v>14352.14</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="1" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <f aca="false">SUM(E57+D58)</f>
+        <v>14407.14</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
@@ -2517,12 +3184,12 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,13 +3200,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
@@ -2549,19 +3216,19 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="E70" s="2"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
@@ -2577,12 +3244,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,7 +3266,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
       <c r="E77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1"/>
+      <c r="E78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2622,11 +3295,11 @@
   </sheetPr>
   <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="A23 A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.86"/>
@@ -2634,7 +3307,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2823,7 +3496,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>44346</v>
+        <v>44712</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>17</v>
@@ -2841,7 +3514,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>44346</v>
+        <v>44712</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>17</v>
@@ -2859,7 +3532,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>17</v>
@@ -2877,7 +3550,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>17</v>
@@ -2895,7 +3568,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>44408</v>
+        <v>44773</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>17</v>
@@ -2913,7 +3586,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>44408</v>
+        <v>44773</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>17</v>
@@ -3158,11 +3831,11 @@
   </sheetPr>
   <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="1" sqref="A23 A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
@@ -3170,7 +3843,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3349,7 +4022,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>44346</v>
+        <v>44712</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>8</v>
@@ -3367,7 +4040,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>44346</v>
+        <v>44712</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>17</v>
@@ -3376,16 +4049,16 @@
         <v>18</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-128.65</v>
+        <v>-125.87</v>
       </c>
       <c r="E18" s="2" t="n">
         <f aca="false">SUM(E17+D18)</f>
-        <v>-77317.27</v>
+        <v>-77314.49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>8</v>
@@ -3398,12 +4071,12 @@
       </c>
       <c r="E20" s="2" t="n">
         <f aca="false">SUM(E18+D20)</f>
-        <v>-77047.35</v>
+        <v>-77044.57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>17</v>
@@ -3412,16 +4085,16 @@
         <v>18</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-128.42</v>
+        <v>-125.64</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">SUM(E20+D21)</f>
-        <v>-77175.77</v>
+        <v>-77170.21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>44408</v>
+        <v>44773</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
@@ -3434,12 +4107,12 @@
       </c>
       <c r="E23" s="2" t="n">
         <f aca="false">SUM(E21+D23)</f>
-        <v>-76905.85</v>
+        <v>-76900.29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>44408</v>
+        <v>44773</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>17</v>
@@ -3448,11 +4121,11 @@
         <v>18</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-128.19</v>
+        <v>-125.4</v>
       </c>
       <c r="E24" s="2" t="n">
         <f aca="false">SUM(E23+D24)</f>
-        <v>-77034.04</v>
+        <v>-77025.69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,7 +4143,7 @@
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">SUM(E24+D26)</f>
-        <v>-76764.12</v>
+        <v>-76755.77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,7 +4161,7 @@
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">SUM(E26+D27)</f>
-        <v>-76892.08</v>
+        <v>-76883.73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,7 +4179,7 @@
       </c>
       <c r="E29" s="2" t="n">
         <f aca="false">SUM(E27+D29)</f>
-        <v>-76622.16</v>
+        <v>-76613.81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,7 +4197,7 @@
       </c>
       <c r="E30" s="2" t="n">
         <f aca="false">SUM(E29+D30)</f>
-        <v>-76749.89</v>
+        <v>-76741.54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,7 +4218,7 @@
       </c>
       <c r="E32" s="2" t="n">
         <f aca="false">SUM(E30+D32)</f>
-        <v>-76479.97</v>
+        <v>-76471.62</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +4236,7 @@
       </c>
       <c r="E33" s="2" t="n">
         <f aca="false">SUM(E32+D33)</f>
-        <v>-76607.47</v>
+        <v>-76599.12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,7 +4257,7 @@
       </c>
       <c r="E35" s="2" t="n">
         <f aca="false">SUM(E33+D35)</f>
-        <v>-76337.55</v>
+        <v>-76329.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,7 +4275,7 @@
       </c>
       <c r="E36" s="2" t="n">
         <f aca="false">SUM(E35+D36)</f>
-        <v>-76464.82</v>
+        <v>-76456.47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,7 +4296,7 @@
       </c>
       <c r="E38" s="2" t="n">
         <f aca="false">SUM(E36+D38)</f>
-        <v>-76194.9</v>
+        <v>-76186.55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,7 +4314,7 @@
       </c>
       <c r="E39" s="2" t="n">
         <f aca="false">SUM(E38+D39)</f>
-        <v>-76321.93</v>
+        <v>-76313.58</v>
       </c>
     </row>
   </sheetData>
@@ -3666,10 +4339,10 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.64"/>
@@ -3680,7 +4353,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3717,7 +4390,7 @@
         <v>44225</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
@@ -3738,7 +4411,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>-110.26</v>
@@ -3759,7 +4432,7 @@
         <v>44620</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -3780,7 +4453,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>-110.17</v>
@@ -3801,7 +4474,7 @@
         <v>44651</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
@@ -3822,7 +4495,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>-110.07</v>
@@ -3843,7 +4516,7 @@
         <v>44681</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
@@ -3864,7 +4537,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>-109.98</v>
@@ -3879,11 +4552,11 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>44344</v>
+      <c r="A17" s="1" t="n">
+        <v>44712</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>165.21</v>
@@ -3894,29 +4567,29 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>44344</v>
+      <c r="A18" s="1" t="n">
+        <v>44712</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-110.17</v>
+        <v>-109.88</v>
       </c>
       <c r="E18" s="2" t="n">
         <f aca="false">SUM(E17+D18)</f>
-        <v>-64266.89</v>
+        <v>-64266.6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>44377</v>
+      <c r="A20" s="1" t="n">
+        <v>44742</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>19</v>
@@ -3926,36 +4599,36 @@
       </c>
       <c r="E20" s="2" t="n">
         <f aca="false">SUM(E18+D20)</f>
-        <v>-64101.68</v>
+        <v>-64101.39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <v>44377</v>
+      <c r="A21" s="1" t="n">
+        <v>44742</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-110.91</v>
+        <v>-109.79</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">SUM(E20+D21)</f>
-        <v>-64212.59</v>
+        <v>-64211.18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
-        <v>44408</v>
+      <c r="A23" s="1" t="n">
+        <v>44773</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>19</v>
@@ -3965,25 +4638,25 @@
       </c>
       <c r="E23" s="2" t="n">
         <f aca="false">SUM(E21+D23)</f>
-        <v>-64047.38</v>
+        <v>-64045.97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>44408</v>
+      <c r="A24" s="1" t="n">
+        <v>44773</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-110.82</v>
+        <v>-109.69</v>
       </c>
       <c r="E24" s="2" t="n">
         <f aca="false">SUM(E23+D24)</f>
-        <v>-64158.2</v>
+        <v>-64155.66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,7 +4667,7 @@
         <v>44439</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>19</v>
@@ -4004,7 +4677,7 @@
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">SUM(E24+D26)</f>
-        <v>-63992.99</v>
+        <v>-63990.45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,14 +4688,14 @@
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>-110.73</v>
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">SUM(E26+D27)</f>
-        <v>-64103.72</v>
+        <v>-64101.18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4706,7 @@
         <v>44469</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>19</v>
@@ -4043,7 +4716,7 @@
       </c>
       <c r="E29" s="2" t="n">
         <f aca="false">SUM(E27+D29)</f>
-        <v>-63938.51</v>
+        <v>-63935.97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,14 +4727,14 @@
         <v>17</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>-110.63</v>
       </c>
       <c r="E30" s="2" t="n">
         <f aca="false">SUM(E29+D30)</f>
-        <v>-64049.14</v>
+        <v>-64046.6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,7 +4745,7 @@
         <v>44500</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>19</v>
@@ -4082,7 +4755,7 @@
       </c>
       <c r="E32" s="2" t="n">
         <f aca="false">SUM(E30+D32)</f>
-        <v>-63883.93</v>
+        <v>-63881.39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4093,14 +4766,14 @@
         <v>17</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>-110.54</v>
       </c>
       <c r="E33" s="2" t="n">
         <f aca="false">SUM(E32+D33)</f>
-        <v>-63994.47</v>
+        <v>-63991.93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,7 +4784,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>19</v>
@@ -4121,7 +4794,7 @@
       </c>
       <c r="E35" s="2" t="n">
         <f aca="false">SUM(E33+D35)</f>
-        <v>-63829.26</v>
+        <v>-63826.72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,14 +4805,14 @@
         <v>17</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>-110.45</v>
       </c>
       <c r="E36" s="2" t="n">
         <f aca="false">SUM(E35+D36)</f>
-        <v>-63939.71</v>
+        <v>-63937.17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,7 +4823,7 @@
         <v>44561</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>19</v>
@@ -4160,7 +4833,7 @@
       </c>
       <c r="E38" s="2" t="n">
         <f aca="false">SUM(E36+D38)</f>
-        <v>-63774.5</v>
+        <v>-63771.96</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,14 +4844,14 @@
         <v>17</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>-110.35</v>
       </c>
       <c r="E39" s="2" t="n">
         <f aca="false">SUM(E38+D39)</f>
-        <v>-63884.85</v>
+        <v>-63882.31</v>
       </c>
     </row>
   </sheetData>
